--- a/experiment_templates/experimentTemplate_short.xlsx
+++ b/experiment_templates/experimentTemplate_short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/RapidSky/experiment_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02154696-1CD5-1942-921A-B906010DF0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CBF548-E74A-3443-B0E5-6CDAABCB5408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,46 +241,46 @@
     <t>tuneIons_file</t>
   </si>
   <si>
-    <t>D:\gkreder\RapidSky\transition_lists\agilentTuneRestrictedDeimos_transitionList.csv</t>
-  </si>
-  <si>
     <t>CSV file containing m/z and CCS values for target ions to perform CCS calibration. Must contain columns "Precursor Charge (e.g. 1 or -1)", "Precorsor m/z", and "CCS"</t>
   </si>
   <si>
     <t>sky_imsdb_file</t>
   </si>
   <si>
-    <t>D:\gkreder\RapidSky\skyline_documents\ymdb.imsdb</t>
-  </si>
-  <si>
     <t>Skyline file containing ion mobility database (built in and exported from Skyline GUI)</t>
   </si>
   <si>
     <t>sky_document_file</t>
   </si>
   <si>
-    <t>D:\gkreder\RapidSky\skyline_documents\ymdb_IMres30.sky</t>
-  </si>
-  <si>
     <t>Skyline document template for performing analysis (built in and exported from Skyline GUI)</t>
   </si>
   <si>
     <t>transition_list_file</t>
   </si>
   <si>
-    <t>D:\gkreder\RapidSky\transition_lists\ymdb_transition_list.csv</t>
-  </si>
-  <si>
     <t>Skyline input transition list</t>
   </si>
   <si>
     <t>sky_report_file</t>
   </si>
   <si>
-    <t>D:\gkreder\RapidSky\report_templates\MoleculeReportShort.skyr</t>
-  </si>
-  <si>
     <t>Skyline output molecule report template (built in and exported from Skyline GUI)</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\transition_lists\agilentTuneRestrictedDeimos_transitionList.csv</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\skyline_documents\ymdb.imsdb</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\skyline_documents\ymdb_IMres30.sky</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\transition_lists\ymdb_transition_list.csv</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\report_templates\MoleculeReportShort.skyr</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,54 +1216,54 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
